--- a/news_data/2018_01.xlsx
+++ b/news_data/2018_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,15 +22,69 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>[제주도]제주 문화관광상품 뮤지컬&lt;만덕&gt;산뜻한 출발…초연 전석 매진</t>
+  </si>
+  <si>
+    <t>“제주도 관광 성과로 지방분권 효율성 공유해야”</t>
+  </si>
+  <si>
+    <t>장쯔이, 제주도 관광 인증샷…"성형 안했어!"</t>
+  </si>
+  <si>
+    <t>2월 제주도 여행 10선...놓치면 후회할 관광명소는?</t>
+  </si>
+  <si>
+    <t>제주관광 올림픽 마케팅 ‘고삐’…2월 9일 ‘제주도의 날’ 운영</t>
+  </si>
+  <si>
+    <t>제주도 여행, 서귀포 중문관광단지 즐기고 흑돼지 식사로 마무리</t>
+  </si>
+  <si>
+    <t>[사드 갈등도 풀리나]관광 훈풍 기대…제주도엔 중국인 수학여행단 찾아</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제 34대 회장 입후보자 공고</t>
+  </si>
+  <si>
+    <t>"중국인 관광객 줄었어도"...제주도 호텔.식당 더 늘었다</t>
+  </si>
+  <si>
+    <t>[해보니 시리즈 24] 중국인 단체 관광객 줄어든 제주도 현 상황</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '이달의 관광인' 이병기-조보광씨 선정</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 외국관광객 환대 에티켓 책자 내놔</t>
+  </si>
+  <si>
+    <t>[제주도]의녀 김만덕 창작뮤지컬로 재탄생…“제주 대표 문화관광상품으로 육...</t>
+  </si>
+  <si>
+    <t>제주도에서 즐기는 겨울, 서귀포 중문단지 관광과 흑돼지 맛집 탐방</t>
+  </si>
+  <si>
+    <t>신임 제주도관광협회장 누가 나서나</t>
+  </si>
+  <si>
+    <t>제34대 제주도관광협회장 선거 2월13일 확정</t>
+  </si>
+  <si>
+    <t>제주도체육회 임직원 4명, 문화체육관광부장관 표창 수상</t>
+  </si>
+  <si>
+    <t>2018 무술년 새해 첫 제주도 관광객 주인공은?</t>
+  </si>
+  <si>
     <t>제주도, 관광친절 수용태세 확립 교육 본격 추진</t>
   </si>
   <si>
+    <t>제주도 올레코스 관광정보 '우수정보' 장관표창</t>
+  </si>
+  <si>
     <t>제주도관광協, 관광 수용태세 확립…에티켓 책자보급</t>
   </si>
   <si>
-    <t>제주도 올레코스 관광정보 '우수정보' 장관표창</t>
-  </si>
-  <si>
     <t>제주도, ‘더코브관광호텔’ 투자진흥지구 해제 절차</t>
   </si>
   <si>
@@ -52,31 +106,76 @@
     <t>제주도관광협회, 'I LOVE JEJU' 캠페인 송 제작</t>
   </si>
   <si>
-    <t>제주도, 관광친절 수용태세 확립 교육 본격 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광친절 수용태세 확립 교육 본격 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광친절 수용태세 확립 교육 본격 추진 기자명 고병수 기자 입력 2018.01.04 12:27 수정 2018.01.04 12:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광 유관기관․단체 등과 협력, 관광친절교육 확대 실시 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 2018년 1월부터 관광사업체 종사자 및 학생을 포함한 도민을 대상으로 건전관광 문화정착을 위한 범 도민 관광친절 수용태세 확립 교육을 대대적으로 추진할 계획이라고 4일 밝혔다.작년 12월 수립한 제주도 관광교육 종합계획에는 관광친절 수용태세 확립을 위해 서비스 부분에서 이뤄지는 관광친절 교육을 강화한다.또한 전 도민을 대상으로 관광친절 및 환대의식 교육을 지속적으로 추진하는 한편 초․중등학생 체험형 관광친절교육 등 관광교육 활성화 방안이 제시됐다.그 동안 관광객의 수가 지속 증가해 양적인 면에서 좋은 성과를 얻었으나 양적 성장에 상응하는 질적 성장이 필요함에 따라 제주지역에 맞는 관광친절 수용태세 확립 교육이 무엇보다도 필요하다는 것. 이에 올해 1월부터 관광친절 수용태세 확립 교육을 위해 도․제주관광공사 및 관광협회 등 관광 유관기관․단체 등과 긴밀한 협조와 공조체제를 유지해 나가면서 관광친절교육을 지속 실시하기로 했다. 道는 관광실천단체의 각종 행사(정기․임시 총회 및 신년하례회 등)때나 공영버스 대상 운수 종사자 및 문화관광해설사 등 의무교육시 또는 읍면동 단위 자생단체 행사(회의 등) 때를 활용해 관광친절 교육을 실시해 나갈 방침이다.  제주관광공사는 제주관광아카데미, 소수언어 관광통역 안내사 양성과정 교육 및 전세버스 종사원 등 관광종사자 대상 관광친절 교육에 보다 더 주력해 나가고 도관광협회는 도교육청과 협력해 관광꿈나무 관광인재 양성과정 등을 통한 체험위주의 관광친절교육에 역할 분담해 관광친절 교육을 내실 있게 추진하기로 했다.이승찬 관광국장은 "제주를 찾는 국내․외 관광객을 맞이하는 현장에서 필요한 에티켓과 관광영어 등의 도민 밀착형 적합한 교육 내용으로 강화한다"며 "제주를 찾는 관광객들에게 보다 나은 관광환경을 조성하고 도민들의 관광산업에 대한 긍정적인 인식제고를 통해 부가가치를 창출하고 도민들에게 실질적인 이익이 돌아가도록 해 나가겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광協, 관광 수용태세 확립…에티켓 책자보급 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광協, 관광 수용태세 확립…에티켓 책자보급 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광協, 관광 수용태세 확립…에티켓 책자보급 기자명 고병수 기자 입력 2018.01.04 07:28 수정 2018.01.04 08:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 I LOVE JEJU 캠페인 노래-영상도 제작 보급 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 범 도민 관광친절 수용태세 확립을 위해 꼭 알아두어야 할 글로벌 에티켓 책자 및 I LOVE JEJU 캠페인 노래를 제작 보급한다고 밝혔다. 글로벌 에티켓 책자는 국제관광지를 지향하고 질적관광과 시장다변화를  추구하는 관광시장에서 제주를 방문하는 관광객들에 대한 글로벌 에티켓과 교통, 숙박 등 상황별 회화로 제작해 보다 쉽게 다가 갈 수 있도록 했다. I Love JEJU 캠페인 노래는 제주 방문을 환영하고 아름다운 추억과 행복한 여행을 보낼 수 있는 내용을 주제로 하고 있어 누구나 쉽게 따라할 수 있도록 했다.  이와 함께 영상은 제주의 오름, 바다, 밭담길, 해녀 등 다양한 제주의 아름다운 모습을 컨셉으로 촬영해 제작했다. 관계자는 "이번 홍보책자 및 노래(영상) 배부를 통해 범 도민 관광친절 수용태세를 확립하고 제주방문 관광객들에게 환대분위기를 조성해 한 단계 더욱 성장하는 국제 관광도시로의 품격을 갖추기 위해 지속 노력할 것"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 올레코스 관광정보 '우수정보' 장관표창 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 올레코스 관광정보 '우수정보' 장관표창 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 올레코스 관광정보 '우수정보' 장관표창 기자명 김하나 기자 입력 2018.01.09 09:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도 오름 및 올레코스 관광정보가 국민들에 유익한 '우수사전정보'로 선정, 행정안전부 장관 표창을 받는다.행정안전부는 7일 지난 1년간 중앙부처·지방자치단체·교육청·공기업 등이 국민에 공개한 정보가운데 유용한 사전정보로 평가된 공표 및 원문공개 10선을 선정·발표했다.관광분야에 선정되 제주도는 도내 오름 및 올레코스 현황에 대한 문서 공개, 정보공개와 사전정보공표의 접근성 및 편리한 검색, 게시판을 활용한 자료 누적 관리 등이 높이 평가 됐다.한편, 이번 우수사례를 공모에는 총 206개 기관·469건(사전정보 226건·원문공개 243건)이 응모, 식품안전(경남·충북·청주), 관광(한국관광공사·제주), 일자리(부산·소상공인공단) 등 10선이 선정됐다. 김하나 기자 hana4557@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, ‘더코브관광호텔’ 투자진흥지구 해제 절차 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:21 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주 강한 비 ‘시간당 20mm’ 내외…기온 큰 폭으로 뚝↓ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, ‘더코브관광호텔’ 투자진흥지구 해제 절차 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, ‘더코브관광호텔’ 투자진흥지구 해제 절차 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2018.01.05 10:50 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 지난해 시설매각 투자진흥지구 지정 기준 위반 ▲ 더 코브 관광호텔 전경. ⓒ제주의소리 호주 국적의 한국인이 운영하던 더 코브 관광호텔에 대한 투자진흥지구 지정이 해제된다.제주도에 따르면 서귀포시 하예동 소재 더 코브 관광호텔을 운영하고 있는 케이피오스트레일리아㈜(대표자 김동훈)에 대한 투자진흥지구 지정해제 행정처분 내용을 공고했다.더 코브 관광호텔은 서귀포시 하예동 일대 9296㎡에 총사업비 88억원을 투입해 42실을 갖춘 고급호텔이다. 2013년 1월 투자진흥지구로 지정됐다.투자진흥지구 지정해제 사유는 더 코브 관광호텔이 지난해 말 다른 사업자에게 매각됐기 때문이다.제주도는 청문을 통해 사업자 측의 합리적인 소명이 부족하다고 판단되면 제주국제자유도시종합계획심의회에 안건으로 올려 지구지정 해제 여부를 최종 결정하게 된다. 투자진흥지구로 지정되면 법인세 3년간 100% 면제, 취득세 100% 면제, 재산세 10년간 100% 면제, 개발부담금 100% 면제 혜택 등을 받는다.투자진흥지구 지정이 해제될 경우 그동안 감면받은 세제를 추징당할 수 있다. 제주도 관계자는 “행정처분 전 사전통지를 했으나 수취인 불명 등으로 문서 송달이 불가능하고 통상의 방법으로 주소를 확인할 수 없어 공시송달을 공고하게 된 것”이라고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 관광 수용태세 확립 친절교육 확대 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광 수용태세 확립 친절교육 확대 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 관광 수용태세 확립 친절교육 확대 실시 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.01.04 17:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 관광사업체 종사자 및 도민(학생포함)을 대상으로 건전관광 문화정착을 위한 범 도민 관광친절 수용태세 확립 교육을 대대적으로 추진한다고 4일 밝혔다.그 동안 관광객의 수가 지속적으로 증가해 양적인 면에서 성과를 얻었으나, 그에 상응하는 질적 성장이 필요함에 따라 제주지역에 맞는 관광친절 수용태세 확립 교육이 무엇보다도 필요하다는 의견이 제시되고 있다.이에 제주도는 제주관광공사 및 관광협회 등 관광 유관기관․단체 등과 긴밀한 협조와 공조체제를 유지해 관광친절교육을 지속 실시키로 했다.이를 위해 관광협회나 외식업협회, 숙박업협회 등 관광실천단체의 정기․임시 총회 및 신년하례회 등 각종 행사때나, 공영버스 대상 운수 종사자 및 문화관광해설사 등 의무교육시, 또는 읍․면․동 단위 자생단체 행사(회의 등)를 활용해 친절교육을 실시한다.또 관광공사는 제주관광아카데미, 소수언어 관광통역 안내사 양성과정 교육 및 전세버스 종사원 등 관광종사자 대상 관광친절 교육에 보다 더 주력하고, 관광협회는 도 교육청과 협력하에 관광꿈나무 관광인재 양성과정 등을 통한 체험위주의 관광친절교육을 추진키로 역할을 분담했다.이승찬 제주도 관광국장은 "제주를 찾는 국내․외 관광객을 맞이하는 현장에서 필요한 에티켓과 관광영어 등의 도민 밀착형 적합한 교육 내용으로 강화해 제주를 찾는 관광객들에게 보다 나은 관광환경을 조성할 것"이라며 "도민들의 관광산업에 대한 긍정적인 인식제고는 물론 건전한 관광문화를 정착함으로써 관광산업을 통한 부가가치를 창출하고 도민들에게 실질적인 이익이 돌아갈 수 있도록 해 나가겠다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+    <t>“제주도 관광 성과로 지방분권 효율성 공유해야” 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 “제주도 관광 성과로 지방분권 효율성 공유해야” 특별자치도 출범 10년 경험 토대로 지방분권 방향 제시 (제주=뉴스1) 안서연 기자					| 2018-01-25 17:41 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 양영철 제주대 교수가 25일 제주 서귀포시 제주국제컨벤션센터에서 열린 ‘2018년 지방분권과 균형발전 비전회의’ 제주특별자치도와 세종특별자치시의 특별한 발전 세션에 참석해 발표를 하고 있다. 대통령 소속 지방자치발전위원회와 대통령 직속 지역발전위원회 주최로 오는 26일까지 열리는 이번 회의는 국내 정치·경제·사회·행정 등 사회과학 분야를 대표하는 38개 학회 소속 250여 명의 전문가와 지방분권과 균형발전 관련 국제 전문가들이 모여 지방분권과 균형발전에 대한 토론을 진행할 예정이다.2018.1.25/뉴스1 © News1 이석형 기자 중앙정부로부터 관광분야에 대한 권한을 일괄 이양받으면서 괄목할만한 성과를 이뤄낸 제주특별자치도를 본보기 삼아 지방분권의 효율성을 공유해야 한다는 목소리가 나왔다.양영철 제주대학교 행정학과 교수(전 한국지방자치학회장)는 25일 제주국제컨벤션센터에서 열린 ‘2018 지방분권과 균형발전 비전회의’에서 ‘제주특별자치도와 세종특별자치시의 특별한 발전’을 주제로 한 특별세션에서 이같이 말했다.‘지방분권을 저해하는 고질적 사례’를 주제로 발표에 나선 양 교수는 2006년 제주특별자치도 출범 이후 10년간 경험을 바탕으로 지방분권을 지연시키는 논쟁을 종식시키기 위한 대안을 제시했다.양 교수는 “처음에는 특별자치도에 국방과 외교를 제외한 중앙정부의 모든 권한을 이관하기로 했으나 사법도 제외되고 아직 특별지방행정기관도 전부 이관하지 못하고 있는 실정”이라며 “그럼에도 5단계에 걸쳐 4500건의 권한을 이양 받으면서 큰 성과를 이뤘다”고 설명했다.양 교수에 따르면 2006년 56만명이던 제주도 인구는 2015년 64만명으로 크게 늘어났으며, 경제성장률은 1.9%에서 4.8%로, 지역총생산(GRDP)은 8조5000억원에서 13조9000억원으로 증가했다.그는 특히 관광 분야 3개 법률상(관광진흥법 관광진흥개발기금법 국제회의산업육성법) 권한을 일괄 이양 받으면서 눈에 띄는 도내 관광산업 발전을 이뤄냈다고 평가했다.제주도 내에서 징수되는 카지노·출국 납부금을 관광진흥기금으로 조성하고, 외국인 관광객 유치를 위한 마케팅 강화와 관광산업 융자 확대에 힘을 쏟으면서 관광산업은 연일 신기록을 냈다는 것이다.     구체적으로 살펴보면 관광객은 543만명에서 1366만명으로 늘어나고 이 중 외국인 관광객은 46만명에서 262만명으로 10년새 6배 까까이 늘어났다. 이는 무비자 입도 허가 제도의 역할이 크다.이에 따라 도내 면세점도 2017년 3개소에서 2015년 4개소(JDC‧JTO‧롯데‧신라)로 늘어나 매출액이 2650억원에서 1만1724억원으로 증가했다. 외국인 투자유치도 누적 595억원에서 15조로 늘어났다. 25일 제주 서귀포시 제주국제컨벤션센터에서 열린 ‘2018년 지방분권과 균형발전 비전회의’ 제주특별자치도와 세종특별자치시의 특별한 발전 세션에서 참석자들이 기념사진을 촬영하고 있다. 대통령 소속 지방자치발전위원회와 대통령 직속 지역발전위원회 주최로 오는 26일까지 열리는 이번 회의는 국내 정치·경제·사회·행정 등 사회과학 분야를 대표하는 38개 학회 소속 250여 명의 전문가와 지방분권과 균형발전 관련 국제 전문가들이 모여 지방분권과 균형발전에 대한 토론을 진행할 예정이다.2018.1.25/뉴스1 © News1 이석형 기자 하지만 이같은 성과에도 중앙정부는 아직도 효율성이 필요하다며 △공사감리자의 보고 의무 △제주도 특별세(국세) 신설 등의 권한을 이관하는 것을 거부하고 있다는 게 양 교수의 설명이다.     또 타 지역과 형평성에 어긋난다는 이유로 △자동차 대여사업 등록 △제주관광진흥기금 신규재원 확보 등을 위한 권한 이관 요구도 수용하지 않으면서 ‘고도의 자치권을 보장해야 한다’는 제주특별법을 어기고 있다고 지적했다.양 교수는 “지자체가 갖고 있는 능력에 대해 의문을 표할 수도 있지만 제주에 이양된 사무를 분석해본 결과 이양 권한의 81%를 활용하고 있었다”며 “제주는 정원조정 자율권이 있음에도 정원증가율을 최소로 해서 운영하는 등 스스로 가진 권한을 자제하고 있다”고 말했다.이에 양 교수는 “다양성을 인정하는 선상에서 자치입법권을 인정하는 헌법적 차원의 노력이 필요하다”면서 “권한 이관의 중심방법은 일괄이양이 돼야 한다”고 제언했다.     그러면서 “중앙정부와 정치세력의 지방분권은 국가경쟁력 향상을 위한 또 다른 정책으로 인식해야 한다”며 “지자체들은 권한오남용을 절제함과 동시에 예산 및 인사의 투명성으로 주민 신뢰를 확보해야 하고, 제주는 끊임없는 혁심으로 이양된 권한의 효용성을 공유해야 한다”고 덧붙였다.발표가 끝난 뒤에는 민기 제주대 행정학과 교수, 이영철 전남대 행정학과 교수, 강병구 인하대 경제학과 교수, 고기동 세종특별자치시 기획조정실장, 배기찬 정책기획위원회 위원, 정성훈 한국지방세연구원장, 육동한 강원발전연구원장, 세종제주특위 위원 참가자 등이 함께 토론을 가졌다.오는 26일까지 열리는 비전회의는 대통령 소속 지방자치발전위원회(위원장 정순관)와 대통령 직속 지역발전위원회(위원장 송재호), 38개 사회과학 학회가 공동 주최한 것으로, 국내 정치·경제·사회·행정 등 사회과학 분야를 대표하는 38개 학회 소속 250여 명의 전문가와 국제 전문가들이 참가했다. asy0104@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>장쯔이, 제주도 관광 인증샷…"성형 안했어!" | SBS연예뉴스 연예뉴스 검색 바로가기 연예뉴스 본문 바로가기 연예뉴스 메뉴 바로가기 연예뉴스 하단메뉴 바로가기 SBS연예뉴스 페이지 주메뉴 최신 방송 전체 프로그램 리뷰 방송 인사이드 촬영장 핫뉴스 드라마 영화 전체 스크린 현장 핫 리뷰 뮤직 스타 전체 끝장 인터뷰 스타는 지금 스타일 라이프 포토 SBS SBS뉴스 SBS Star 로그인 검색 검색하기 검색창 닫기 공유 카카오톡 공유하기 카카오톡 페이스북 공유하기 페이스북 트위터 공유하기 트위터 URL 공유하기 URL 스타 스타는 지금 장쯔이, 제주도 관광 인증샷…"성형 안했어!" 김지혜 기자 Seoul 김지혜 기자 작성 2018.01.24 18:14 수정 2018.01.25 09:21 조회 160 기사 인쇄하기 폰트 사이즈 줄이기 폰트 사이즈 키우기 [SBS연예뉴스 | 김지혜 기자] 중국 최고의 스타 장쯔이가 제주도 관광 사진을 올려 눈길을 끌었다. 장쯔이는 23일 자신의 SNS에 제주도에서 찍은 사진 한 장을 게재했다. 장쯔이는 이소룡의 전신 슈트를 입은 테디베어 옆에서 무술 동작을 취했다. 더불어 "맞고 싶으면 말해"라는 글도 올렸다. 최근 장쯔이는 성형외과에 출입하는 모습이 포착돼 성형설에 휘말렸다. 이 게시물은 루머에 대한 불편한 심경을 우회적으로 표현한 것이라는 의견이 지배적이다. 장쯔이는 2015년 인기 가수 왕펑과 결혼해 같은 해 12월 딸을 낳았다. 지난해 10월에는 절친인 송혜교의 결혼식에 참석하기 위해 서울을 찾기도 했다. &lt;사진=장쯔이 웨이보&gt; 김지혜 기자 다른 기사 보기 기사공유 공유하기 공유하기 카카오톡 공유하기 카카오스토리 공유하기 페이스북 공유하기 트위터 공유하기 네이버밴드 공유하기 네이버 공유하기 URL 공유하기 공유하기 닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V) 해주세요. 확인 닫기 관련 기사 광고영역 태그기사 광고영역 닫기 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email. sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 뉴스제보 제휴문의 이용약관 개인정보 처리방침 트위터 바로가기 페이스북 바로가기 핀터레스트 바로가기 네이버밴드 바로가기 ⓒ SBS &amp; SBS Digital News Lab all rights reserved. SBS Family 더보기 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S 지역민영방송 더보기 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 페이지 최상단으로 가기</t>
+  </si>
+  <si>
+    <t>2월 제주도 여행 10선...놓치면 후회할 관광명소는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 2월 제주도 여행 10선...놓치면 후회할 관광명소는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 2월 제주도 여행 10선...놓치면 후회할 관광명소는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.01.24 10:15 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, 2월 제주관광 추천 ...관광지, 자연, 체험, 축제, 음식 등 선정 제주관광공사(사장 박홍배)는 24일 '겨울을 보내고, 제주는 먼저 봄을 틔운다'란 테마를 주제로 관광지, 자연, 체험, 축제, 음식 등 5가지 분류에 대해서 놓치지 말아야 할 제주 관광 추천 10선을 발표했다. 1. 훈훈한 바닷바람 맞으며 마을 마실: 서홍동 마을, 들렁모루 100년의 세월동안 진한 감귤 향기를 품고 있는 마을. 훈훈한 바닷바람, 맑은 물, 따뜻한 햇살이 만들어내는 서홍동 마을은 제주 최초의 온주밀감의 탄생지다. 제주에서 가장 오래된 마을인 만큼 마을 곳곳에서 짙은 세월을 느낄 수 있다. 제주에서 보기 드문 대나무 숲길로 조성된 들렁모루 산책길을 따라 오르면 서귀포 시내가 한눈에 들어온다. '서홍팔경' 으로 꼽히는 들렁모루 정상에서 바라보는 푸른 바다는 언덕을 오른 이들에게만 허락되는 특별한 선물이다.   지혜의 샘 지장샘, 마을을 지켜주는 흙담솔, 제주를 키워낸 온주밀감나무, 고인돌을 닮은 들렁모루를 포함해 서홍동 마을에는 8곳의 보물이 숨겨져 있다. 봄이 피어오르기 시작하는 서홍동 마을 구석구석을 탐닉해보자.2. 잃어버린 마을의 노래 : 섯알오름, 곤을동, 무등이왓 봄을 맞이하는 소란스러운 분위기는 없지만, 차분함과 경건함이 짙게 깔린 유적지를 방문해보는 것은 어떨까. 섯알오름은 제주 4.3의 아픔을 간직하고 있다. 단숨에 정상에 도달하는 작은 오름이지만 가파도와 마라도, 산방산까지 조망할 수 있어 탐방객에게 감동을 선사한다. 섯알오름의 아름다움을 눈에 담고 내려오며 희생자를 위한 추모비에서 짧은 묵념으로 그날의 아픔을 위로해보자. 집터였음을 알 수 있는 올레와 돌담들이 그대로 남아있는 곤을동은, 해안 산책로로 조성된 20분 정도의 짧은 코스로 둘러볼 수 있다. 70년전 그대로 시간을 잃어버린 무등이왓 또한 한적히 걸으며 옛 제주를 느낄 수 있다. 마을의 형세가 춤을 추는 어린아이를 닮았다고 하여 붙여진 무등이왓 마을이지만 4.3 와중에 마을이 전부 전소되어 현재는 터만 남아있다. 왕복 2시간 정도의 4.3길을 걸으며 무등이왓의 옛 흔적을 찾아볼 수 있다.3. 봄을 서두르는 유채꽃: 산방산, 섭지코지, 성산일출봉 겨울의 끝자락, 유채의 노란 꽃 몽우리가 얼어있던 마음을 녹인다. 봄이 반가운 이유엔 여러 가지가 있지만 그중의 으뜸은 추운 겨울을 이겨낸 꽃들과의 만남이 아닐까.산방산의 웅장함을 배경으로 피어난 노란 유채꽃밭은 인생 사진 찍기 좋은 곳으로 인기가 많다. 조금 특별한 유채꽃을 만나고 싶다면 섭지코지도 좋다. 섭지코지 하얀등대에서 내려다보는 해안절벽과 유채꽃밭은 잊지 못할 추억을 선사한다. 성산일출봉 근처에서는 끝없이 펼쳐진 유채꽃밭을 만날 수 있다. 유채꽃밭을 배경으로 사진을 찍어도 좋지만, 주변에 위치한 카페에서 따뜻한 커피와 함께 노란 유채꽃을 바라보는 것도 좋다. 4. 강정천 바다가 만나는 아름다운 길 : 강정천 멧부리 산책로 삶이 신비로운 이유는 시작과 끝이 맞물려 있기 때문이다. 강정천과 강정바다가 만나 '영원'을 이루는 멧부리는 그래서인지 더욱 아름답다. 제주의 화산이 만든 토양은 물을 가둬두지 못하고 지하로 내려 보낸다. 물을 머금지 못하고 속살을 드러내고 있는 제주의 일반적인 하천과 달리, 강정천은 사계절 맑은 물이 흐른다. 기암절벽과 노송이 어우러진 멧부리 산책로를 걷다보면 천천히 다가오는 봄 향기를 맡을 수 있다. 강정천 하천 바닥을 따라 걷는 하천 트레킹을 즐길 수도 있다. 강정천의 맑은 물이 폭포를 이루며 강정 바다로 떨어지는 모습과 함께 범섬에 걸린 해는 연신 셔터를 누르게 한다. 하천 바닥을 따라 걸을 땐 돌에 미끄러질 수 있어 안전에 유의해야 한다.5. 신들의 축제로 미리 맞이하는 봄: 탐라국 입춘굿 제주는 1만 8천의 신들이 살고 있는 신들의 고향이라 한다. 가장 외진 변방의 섬으로, 척박한 땅과 태풍과 큰 비가 내리는 날이 많은 제주에는 전지전능한 신이나 조상에게 의지하고자 비는 것이 생활의 방편이었다. 탐라국 입춘굿은 지상에 있는 신들의 역할과 임무가 바뀌는 '신구간'이 끝나고 하늘의 새로운 신들이 오는 '새 철 드는 날'인 입춘에 민과 관, 무속이 하나 되어 진행했던 축제다. 탐라국입춘굿은 1월 25일 사전행사를 시작으로 2월 2 ~ 4일 3일간 본굿이 치러진다. 2월 2일(금)은 입춘맞이 거리굿을, 3일(토)은 열림굿, 입춘 당일인 2월 4일(일)은 본굿인 입춘굿이 진행된다. 누구나 함께 체험하며 즐길 수 있는 전통문화축제로 소원지 쓰기와 전통탈 만들기 등 다채로운 시민참여 프로그램도 진행된다. 또한, 축제기간 동안 관덕정 마당에서는 입춘천냥국수와 향토먹거리를 맛 볼 수 있다.6. 빨간 동백꽃의 버선발 마중: 따라비오름, 선흘 동백동산 봄을 기다리는 볼 빨간 동백꽃의 모습이 수줍게 고백하는 볼 빨간 소녀의 얼굴처럼 귀엽기만 하다. 빨간 동백꽃은 수줍게 한 곳에서 군락을 이루며 기다리고 있다. 따라비오름을 오르기 전 누런 들판에서 발견하는 동백군락에서 인사를 나누면 오름을 오르는 내내 그 향긋함이 조용히 따라나선다. 람사르습지를 품은 선흘 동백동산에서 볼 수 있는 빨간 동백은 겨울의 마지막과 봄의 경계에서 우리를 설레게 한다. 우리는 조용히 눈으로 겨울의 빨간 동백꽃을 내 마음에 저장한다.7. 설을 준비하는 바쁜 손길을 만나다: 서귀포 오일장, 제주시 오일장 5일 만에 만나는 반가운 얼굴 그리고 얇은 지갑을 위로해주는 따뜻한 웃음, 오일장에서 바쁘게 설을 준비하는 사람들의 모습은 봄처럼 훈훈하기만 하다. 한 손에는 따뜻한 옥수수를 쥐고 여행객이 아닌 제주 도민의 모습으로 오일장을 즐겨보자. 4일과 9일 열리는 서귀포 오일장과 2일과 7일 열리는 제주시 오일장에서 따뜻한 국밥으로 허기도 달래고 오가는 사람들의 모습을 보며 사람 사는 맛과 멋을 즐길 수 있다.8. 따듯한 겨울 액티비티: 제주신화월드 아이스링크 가장 먼저 봄을 맞이하기 위해 찾은 제주지만 끝나가는 겨울이 아쉽게만 느껴진다면, 겨울 스포츠를 즐겨보자. 올 겨울 제주에 개장한 유일한 아이스링크장인 신화테마파크 야외 아이스링크에서는 떠나가는 겨울을 잠시 붙잡을 수 있다. 제주의 밤을 밝히는 루미나리에의 화려한 조명과 함께 은반위의 로맨틱한 데이트를 즐길 수 있다. 동계 스포츠의 매력에 빠져 매일 밤 금메달리스트를 꿈꾸는 아이와 함께 즐거운 추억 만들기에도 제격이다. 제주신화월드 아이스링크장은 낮 12시부터 저녁 8시까지 운영한다. 3월 2일까지 아이스링크장을 이용할 수 있다. 9. 상상을 초월하는 또 다른 세상: 플레이 박스 VR, 브릭캠퍼스 아직은 차가운 바람에 아이의 두 볼이 붉게 물들었을 때, 아이와 함께 즐길 수 있는 장소들을 소개한다. 가상현실(VR) 체험존인 플레이박스 VR 에서 제주의 하늘을 날아보자. 성산일출봉, 외돌개 등 제주의 주요 관광지를 한 눈에 볼 수 있는 항공투어 '제주 하늘을 걷다'와 산방산과 용머리 해안을 배경으로 즐기는 '제주윈드코스터'는 특별한 즐거움을 선사한다.   무한한 상상력을 마음껏 펼칠 수 있는 곳이 또 한 곳 있다. 도깨비도로 초입에 위치한 브릭캠퍼스는 브릭 예술가가 될 신입생들을 기다리고 있다. 브릭캠퍼스의 입학생들은 브릭 아티스트 40여 명이 제작한 250여 점의 작품을 만난다. 초대형 브릭 모자이크 캔버스를 가득 채우거나 80만개의 브릭으로 나만의 작품을 만들어 보자. 캠퍼스 곳곳을 누비다보면 어느새 브릭 예술가로 캠퍼스를 졸업 하게 된다.10. 몸을 따뜻하게 덥혀줄 제주의 전통주: 고소리술 아직은 쌀쌀한 2월 제주의 전통주 한잔으로 몸을 따뜻하게 덥혀준다면 어느새 몸은 따뜻한 봄을 느낀다. 술을 만드는 그릇의 제주방언인 고소리에서 만든 고소리술은 오메기떡에서 만들어진 오메기술을 다시 증류하여 1년 이상 숙성시켜 만든 술이다.제주 어머니의 척박한 삶을 술 한 잔으로 따뜻하게 다스리며 살았던 제주인의 삶이 녹아 있는 선물. 제주의 고소리술. 고즈넉한 제주의 밤, 친구와 연인과 함께하는 저녁 제주 고소리술 한 잔으로 여행의 피로를 다독여보자.제주관광공사 관계자는 "가장 먼저 봄을 만나는 제주에서 2월에 만나봐야 할 10가지를 추천한다"며 "2월 제주에서 친구, 연인, 가족과 함께 따뜻한 추억을 만들 수 있기를 바란다"고 말했다. 제주관광공사 2월 추천 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다. 문의=제주관광공사 지역관광처(064-740-6971).&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주관광 올림픽 마케팅 ‘고삐’…2월 9일 ‘제주도의 날’ 운영 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주관광 올림픽 마케팅 ‘고삐’…2월 9일 ‘제주도의 날’ 운영 파이낸셜뉴스입력 2018.01.27 03:04수정 2018.01.28 06:25 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 평창 동계올림픽과 연계, 제주도 홍보관 운영4․3 70주년 2018 제주 방문의 해 홍보 마케팅 ‘4·3 70주년 2018 제주 방문의 해' 이미지 광고 [제주=좌승훈기자] 제주도는 2018 평창 동계올림픽(2월 9일~25일)과 연계, ‘4·3 70주년 2018 제주 방문의 해’홍보 마케팅을 적극 펼치기로 했다. 제주는 우선 평창 동계 올림픽 기간 중에 제주홍보관을 운영한다. 오는 2월 9일 오전 11시부터 오후 10시까지 평창 페스티벌파크와 강릉 올림픽파크에 개선된 제주홍보관에서 ‘제주도의 날’을 진행한다. 제주도는 이를 통해 4・3 70주년 2018 제주방문의 해와 유네스코 3관왕(생물권보전 지역, 세계자연유산, 세계지질공원 ) 제주, 제주의 아름다운 사계 등 제주 알리기에 나선다. '가자 평창으로, 놀자 제주에서' 홍보물 ■ 인천공항.김포공항, 공항철도역 등에 홍보 동영상 상영, 이미지 광고 게재 앞서 제주도는 올 1월부터 '가자 평창으로, 놀자 제주에서'라는 키워드로 동영상을 제작해 인천국제공항을 비롯해 김포·김해·양양국제공항 등과 지난해 12월 개통한 경강선(서울-강릉) KTX 주요 역사(인천공항역·강릉역) 등 다중 집합 장소를 중심으로 홍보활동을 펴고 있다. 또 제주관광공사가 운영하고 있는 비짓제주 홈페이지와 페이스북 등 SNS(소셜네트워크서비스)도 적극 활용되고 있다. 아울러 전 세계 117개국에 송출되는 KBS 월드를 통해 평창 동계 올림픽과 연계한 제주관광 홍보 동영상을 이달 말부터 방영하고 있다. 제주도는 특히 '4.3 70주년 제주 방문의 해'와 관련, '제주에서 길을 걷다, 제주에서 사람을 만나다, 제주에서 4.3을 생각하다'를 주제로 제작한 20초 동영상을 인천공항과 공항철도역(인천공항·홍대입구·서울역), 김포공항역 지하철 무빙워크지역 일원에서 상영하고 있다. 4.3 70주년 제주 방문의 해 이미지 광고도 게재했다. 김남진 제주도 관광마케팅담당은 “동계올림픽은 하계올림픽, 월드컵 축구대회와 더불어 지구촌 빅 이벤트”라며 “이번 평창 동계 올림픽을 통해 제주 관광시장 다변화와 질적 성장의 초석을 다지는 계기로 적극 활용해 나가겠다”고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 여행, 서귀포 중문관광단지 즐기고 흑돼지 식사로 마무리 - Queen-여왕의 품격 × 전체기사 여성 전체 라이프 푸드 자녀교육/육아 Queen TV 퀸경제 전체 금융·경제 기업 경영 정치 전체 정치 정책 자치단체 사회·문화 전체 사회/과학 교육/문화 건강 포토 스포츠·아웃도어 전체 스포츠 트래블 산 자전거 캠핑 연예 전체 TV가이드 화제 기획특집 인터뷰 칼럼 전체 여성 재테크 이야기 생활 속 세무 생활법률 BETTER LIFE 옛날 Queen 미분류 로그인 회원가입 모바일웹 UPDATED. 2022-10-11 12:45 (화) 페이스북 트위터 RSS 포스트 블로그 여왕의 품격www.queen.co.kr 여성 라이프 푸드 자녀교육/육아 Queen TV 퀸경제 금융·경제 기업 경영 산업뉴스 정치 정치 정책 자치단체 사회·문화 사회/과학 교육/문화 건강 포토 스포츠·아웃도어 스포츠 트래블 산 자전거 캠핑 연예 TV가이드 화제 기획특집 인터뷰 칼럼 여성 재테크 이야기 생활 속 세무 생활법률 노마의 상상편지 옛날 Queen 실시간뉴스 글로벌 수소차 점유율 '현대차 60% vs 도요타 21%' 청와대 개방 5개월 만에 200만명 돌파 … 김승수 "국가유산 인정 위해 관리해야" 사진작가 김도형의 풍경- 경남 고성 [오늘의 농정] 농협유통 [오늘의 농정] 한국농수산식품유통공사 [오늘의 농정] 농촌진흥청 무역전선 '초비상' ... 무역수지 적자 10월에도 지속 [오늘의 지자체] 홍천군 [오늘의 지자체] 신안군 진천군 [오늘의 지자체] 보성군 울진군 [오늘의 지자체] 고흥군 연천군 [오늘의 지자체] 순천시 청도군 [오늘의 지자체] 강진군 구리시 "일본항공권 최저가 아니면 차액 100% 보상" ... 인터파크 최저가 프로모션 [오늘의 지자체] 고성군 장성군 stop play 기사검색 검색 이전 다음 제주도 여행, 서귀포 중문관광단지 즐기고 흑돼지 식사로 마무리 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 퀸경제 산업뉴스 제주도 여행, 서귀포 중문관광단지 즐기고 흑돼지 식사로 마무리 백준상 기자 승인 2018.01.26 15:04 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버포스트 핀터레스트 URL복사 × 전국이 꽁꽁 어는 한파 속에 감기와 각종 바이러스 등 건강관리가 비상인데 영양섭취와 위생관리 외에 스트레스 관리만큼 중요한 건강관리도 없다.영양가 있는 식단과 꾸준한 운동이 도움이 되지만 가끔은 마음에 편안함을 가져다주고 기분전환이 되는 여행이 스트레스 해소에 큰 도움이 되는데, 주말과 연휴기간을 이용해 제주도에 들러 나와 가족들에게 진정한 쉼을 선물하는 것은 어떨까.제주도는 천혜의 자연경관과 산해진미, 특유의 이국적이고 평온한 분위기와 사계절 내내 각기 다른 매력으로 여러 번 방문해도 새로움을 선사하는 우리나라의 대표적인 여행지이다. 그 중에서도 제주도 남쪽 해안가에 있는 ‘중문관광단지’는 제주도만이 가지는 자연의 아름다음과 맛있는 음식, 다양한 볼거리가 공존하는 복합휴양관광단지다.4가지 색을 띠는 고운모래가 인상적인 반달모양의 ‘색달해수욕장’에서 겨울바다를 만끽하고, 상중하 3단으로 쏟아져 내려오는 ‘천제연폭포’와 거센 파도와 부딪혀 만들어내는 ‘지삿개 주상절리’를 보면 자연의 웅장함과 위대함에 감탄하게 될 것이다.‘제주도 민속마을’을 둘러보는 것도 권한다. 제주도의 오랜 전통가옥과 제주 어민들의 생활상을 눈으로 보고 느낄 수 있어 남녀노소 모두에게 좋은 경험이 된다.이곳저곳 둘러본 후 제주도 음식으로 즐기는 든든한 식사 한 끼는 여행의 화룡점정이다. 제주도 맛집 중문 흑돼지 전문점 ‘돈가득’은 복분자를 뿌린 흑돼지로 관광객뿐 아니라 현지주민들의 입맛까지 사로잡은 서귀포 맛집이다.중문 맛집 흑돼지 전문 ‘돈가득’은 제주도산 품질 좋은 흑돼지를 참숯에 굽는데, 굽기 직전 복분자를 뿌려주어 고기의 잡내를 없애고 은은한 복분자 향뿐만 아니라 훈연의 향까지 배어 ‘돈가득’만의 독보적인 흑돼지 근고기 맛을 완성시켰다.잘 구워진 고기는 멜젓에 찍어 먹거나 이곳만의 ‘특제양파절임’과 함께 먹으면 맛있는데 신선한 양파와 고춧가루, 식초만 넣은 깔끔한 그 맛과 고기와의 조화가 일품이다.제주도의 대표 음식 흑돼지를 특별하게 즐길 수 있는 ‘돈가득’. 문의 가능하다. 저작권자 © Queen-여왕의 품격 무단전재 및 재배포 금지 백준상 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1이달의 운세 - 2022년 10월 2이로운 곡식으로 피부를 가꾸다 '천연 곡물 팩&amp;세안제' 3'스피디 뷰티 팁' 소중한 내 시간을 위해 4'잔주름 주의보' 선선한 바람 속, 피부를 지켜라 5[오늘의 지자체] 파주시 홍천군 6'트레일러 드론', 현대차그룹 최초 레드닷 어워드 대상 7컬러와 패턴의 스타일링 최신기사 글로벌 수소차 점유율 '현대차 60% vs 도요타 21%' 글로벌 수소차 점유율 '현대차 60% vs 도요타 21%' 청와대 개방 5개월 만에 200만명 돌파 … 김승수 "국가유산 인정 위해 관리해야" 청와대 개방 5개월 만에 200만명 돌파 … 김승수 "국가유산 인정 위해 관리해야" 사진작가 김도형의 풍경- 경남 고성 사진작가 김도형의 풍경- 경남 고성 [오늘의 농정] 농협유통 [오늘의 농정] 농협유통 [오늘의 농정] 한국농수산식품유통공사 [오늘의 농정] 한국농수산식품유통공사 [오늘의 농정] 농촌진흥청 무역전선 '초비상' ... 무역수지 적자 10월에도 지속 무역전선 '초비상' ... 무역수지 적자 10월에도 지속 회사소개 오시는길 정기구독신청 지난호보기 기사제보 광고문의 제휴문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 자하문로17길 12-10 (퀸B/D) 대표전화 : 02-320-6000 발행·편집인 : 전재성 월간 Queen - 등록번호 : 종로 라 00252 등록일 : 1990년 03월 10일 청소년보호책임자 : 이광희 인터넷신문 등록번호 : 서울 아 05329 등록일 : 2018년 7월 26일 사업자등록번호 : 104-81-76607 종로 통신 제0654호 Queen-여왕의 품격 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 Queen All rights reserved. mail to magazineplus2002@hotmail.com 아래로 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제 34대 회장 입후보자 공고 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 제 34대 회장 입후보자 공고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회 제 34대 회장 입후보자 공고 기자명 고병수 기자 입력 2018.01.21 15:54 수정 2018.01.21 16:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회는 제34대 회장선거 일정을 확정하고 오는 2월 1일부터 2일까지 입후보 접수를 받는다고 21일 밝혔다.제 34대 회장선거일은 2월 13일이다.회장의 자격은 도내.외 거주 불문하고 관광마인드, 지식, 사업경험, 리더쉽과 덕망이 있는 인사로 관광진흥법 제7조(결격사유)에 해당되지 않는 자라야 한다. 제출서류는 입후보신청서 1부와 등록금 2000만원, 이력서 1부, 주민등록초본 및 등본 1부, 추천서 1부(관광협회 회원 50인 이상 추천), 자기소개서 1부 등을 제출하면 된다.자세한 사항은 관광협회 홈페이지(www.visitjeju.or.kr)공지사항에 게시됐다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"중국인 관광객 줄었어도"...제주도 호텔.식당 더 늘었다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "중국인 관광객 줄었어도"...제주도 호텔.식당 더 늘었다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 "중국인 관광객 줄었어도"...제주도 호텔.식당 더 늘었다 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2018.01.22 11:21 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 위생업소 한 해 1천곳 증가...'폐업하고, 창업하고' 커피숍.네일숍.즉석음식 '뜨고'...단란주점 등 감소 지난해 우리나라 사드 배치에 따른 중국의 보복조치로 인해 제주도를 찾는 중국인관광객의 전년 30% 수준으로 대폭 감소했음에도 불구하고, 관련 업종인 숙박업과 음식점 등은 오히려 더 늘어난 것으로 파악됐다.제주시는 2017년 12월말 기준으로 위생업소 등록현황을 분석한 결과 등록 위생업소 수는 총 1만8879개소로 집계됐다고 22일 밝혔다.이는 2016년 1만7731개소에 비해 6.5%인 1148곳이 증가한 규모다.업종별로 보면, 일반음식점은 8510곳으로 전년 보다 582곳이 늘었고, 숙박업은 788곳으로 29개소 증가한 것으로 나타났다.휴게음식점은 2132개소, 미용업은 1547개소로 1년새 각각 280곳과 120곳이 증가했다. 즉석판매 제조.가공업도 804개소로 58곳이, 식품자동판매기업은 555개소로 20곳이 각각 늘었다.미용업에서는 2014년 신설업종인 '네일'의 창업이 두드러진다. 지난해 신설 등록된 미용업 120개소 중 68개소가 네일숍인 것으로 나타났다. 제주시는 네일숍이 기존 미용업장 내에 숍인숍 겸업이 용이하고, 소자본으로 작은 공간에서 할 수 있는 점 때문에 창업이 늘어나는 것으로 분석했다.또 최근 3년간 커피숍의 창업이 크게 증가하고 있는 것도 특징이다.제주시 지역의 커피숍은 2015년 597곳이었으나, 2016년 712곳으로 140여곳이 증가했고, 2017년에는 832곳에 이르는 것으로 나타났다.또 편의점 내에서 치킨이나 어묵, 커피 등을 판매하는 휴게음식점도 2015년 217곳, 2016년 253곳, 2017년 294곳 등 꾸준히 증가하고 있다.반면 단란주점 등은 지속적으로 감소하는 것으로 나타났다. 단란주점은 2017년 말 기준 541곳으로 전년대비 10곳이 줄었다. 유흥주점도 541곳으로 소폭 감소세를 보였다. 종업원을 구하기 힘든 구인난과 함께, 접객행위에 대한 규제가 강화됐고, 최근 음주문화가 '간편 위주'로 전환되는 추세와 맞물린 것으로 풀이된다. 이용업은 156곳으로 8곳이 감소했고, 세탁업은 358곳으로 5곳이 줄었다.윤승환 제주시 위생관리과장은 "전체적으로 보면 커피숍과 즉석편의음식, 네일 등의 미용 등이 '뜨는 업종'으로 분류된다"면서 "이는 1인 가구의 증가, 식생활 트렌트의 변화 등의 요인이 작용한 결과로 볼 수 있다"고 말했다.한편 위생업소의 경우 창업과 폐업 변동이 매우 크게 나타나고 있는데, 2017년 한 해 제주시 지역 위생업소 중 8084곳이 영업부진 등의 사유로 변동이 있었던 것으로 집계됐다.유형별로는 2559개소가 신규 등록(창업)을 했고, 2504개소가 사업자가 바뀌어 명의변경이 이뤄졌다. 또 1036개소는 폐업을 했고, 1291개소는 신고사항을 변경한 것으로 나타났다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[반나절시리즈][해보니 시리즈 24] 중국인 단체 관광객 줄어든 제주도 현 상황 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 서울 잠원동 공원에서 50대 권총에 맞아...극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... [뉴스라이브] 이재명 "욱일기 다시 걸릴 수도"...국민의힘 "소... 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 [해보니 시리즈 24] 중국인 단체 관광객 줄어든 제주도 현 상황 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일... 이재명 "與, 해방 후 친일파 행태...尹, 국민께 ... 서울청장 "이준석, 지난 주말 소환 조사...무고 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일국방' 공세 일축 대화 필요 없다는 김정은에 美 "여전히 외교적 해법 전념" 김기현, 安 견제…"대선 불출마 선언 기대하겠다" 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 서울 잠원동 공원에서 50대 권총에 맞아…극단적 선택 추정 국내 외국인 교육시설 30%, '일본해' 표기 교과서 사용 코스피, 2,200선 붕괴…환율, 장중 1,430원 돌파 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 [단독] SLBM 개발 성과보상금 '0원'…국방과학연구소 떠나는 연구원들 오늘부터 개량백신 접종…신규 확진 1만 5,476명 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 국민연금 자발적 가입자 5년만에 첫 감소세…건보개편 영향 우려 고물가에 '구제 시장'도 타격…"손님은 늘었는데 안 사요" '반값' 배추 예약 문전성시…김장철 가격 내릴까 농약 인터넷 판매 막았다더니…"점 하나 찍으면 바로 검색" 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 엔·달러 환율 다시 145엔대…日 정부 시장 개입 효과 제한적 다음 반나절 시리즈 [해보니 시리즈 24] 중국인 단체 관광객 줄어든 제주도 현 상황 2018년 01월 10일 14시 00분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주가 조용해졌다. 1년에 서너 번은 제주에 방문하는데, 약 5개월 만에 찾은 제주는 유독 조용하고 한산한 인상을 풍겼다. 지난해 3월 중국 정부가 한반도 사드(고고도 미사일 방어체계, THAAD) 배치에 대한 보복으로 중국인들의 한국 관광을 금지한 이후 약 10개월이 흘렀다. 최근 중국 당국이 한국행 단체 관광을 다시 허용했다지만 여전히 제주에서 중국인 단체 관광객의 모습은 찾아보기 힘들었다. 특히 중국인 단체 관광객들이 붐볐던 제주의 차이나타운 연동 '바오젠 거리'(누웨모루)의 상점들은 주말 오전 대부분 영업을 하지 않고 있었다. 중국인 관광객들이 줄을 지어 다니던 시내 면세점 인근이나 중문 관광단지 부근, 용두암, 제주국제공항에서도 그들을 보지 못했다. 주차장마다 빼곡했던 관광버스도 찾아보기 어려웠다. 사드 보복 이전에는 국내선 비행기 안에서부터 중국인 단체 관광객을 쉽게 볼 수 있었던 것과 대조적이다. 하지만 중국인 단체 관광객이 빠진 제주는 내국인 여행객들에게 더욱 평화로운 관광지가 된 듯했다. 제주도민 사이에서도 다시 한적하고 조용하고 깨끗한 제주가 되고 있다 반응이 나오고 있다. 지난 7일 오전, 중국인 관광객들의 필수 코스인 바오젠 거리를 찾았다. 이곳에는 중국인을 상대로 건강식품 등을 판매하는 약국, 화장품 전문점, 옷 가게 등이 늘어서 있다. 손님은 몇 없었다. 2~3명 단위 중국인 개별 관광객 무리 몇몇이 보이긴 했지만 이곳에서 물건을 대량으로 사거나 쇼핑을 즐기는 모습은 아니었다. 영업하는 가게가 몇 안 됐고 '폐업 정리' 표시를 해 놓은 상점도 눈에 띄었다. 바오젠 거리 중심에 있는 관광안내소의 문도 굳건히 닫혀 있었다. 주말인데도 적막이 흘렀다. 문이 열려있는 한 화장품 전문점에 들어가 봤다. 가게 입구에는 할인한다는 내용의 문구가 중국어로 쓰여있었다. 중국 출신으로 보이는 직원이 홀로 가게를 지키고 있었다. 사드 보복 여파를 실감하는지 묻자 그는 "중국 단체 관광 금지 이후 매출이 3분의 1로 줄었다"고 토로했다. 이 직원은 "예전엔 오후 4시 이후면 유동인구가 많았는데 요즘은 그렇지 않다"며 "12월에 중국인 관광이 허용되면서 손님이 조금씩 다시 늘고 있지만 예전 같지 않다"고 덧붙였다. 중국인 상대로 기념품과 건강식품, 약 등을 파는 곳에 들어갔을 때는 급히 약을 사고 나가는 현지 주민 한 명과 마주쳤을 뿐이었다. '비성수기인 1월이라 조용한 걸까?' '날씨가 흐린 탓에 관광객이 없는 걸까?'라고 생각하면서 '카멜리아 힐'을 찾았을 때 궁금증이 풀렸다. 카멜리아 힐은 제주의 겨울 동백을 감상하고 기념사진을 남기기 좋은 곳이다. 동백이 개화하는 1월이면 많은 국내 관광객들이 찾는다. 그곳에 도착하자마자 "관광객들이 다 여기로 몰려왔구나"라는 말이 먼저 나왔다. 주차장부터 렌터카로 가득 찼다. 동백이 활짝 핀 포토존에서 기념 촬영을 하려면 줄을 서서 기다려야 했다. 중국인은 사라졌지만, 여전히 내국인 관광객들이 제주의 아름다움을 만끽하기 위해 찾고 있다는 걸 확인할 수 있었다. 중국인이 빠진 제주 관광 산업이 위기라고 하기엔 이르다는 생각이 들었다. 서울에서 왔다는 관광객 이 모 씨는 "비가 와서 사람이 없을 줄 알았는데 생각보다 여행객이 많다"며 "중국인 관광객이 줄어 조용하다고 해서 주말을 맞아 제주에 놀러 왔다"고 말했다. 실제 중국인 단체 관광객이 제주로 몰려들면서 각종 쓰레기나 관광지 주변 소음 문제뿐 아니라, 제주행 항공권 부족 문제 등이 꾸준히 제기돼 왔기 때문이다. 국내 관광객들 사이에서 유명한 '제주도 맛집' 몇 군데를 찾았을 때도 북적였다. 중문 관광단지 인근에 위치한 한 흑돼지구이 집 운영자는 "애초에 중국인 단체 관광객 손님은 정신없고 시끄러워 받지 않았다"면서 "중국인 단체 관광이 줄었다고 해서 매출에 큰 영향을 받지 않는다"고 전했다. 제주도관광협회 조사 결과 지난해 제주를 찾은 중국인 관광객은 전년도 306만 명 대비 75.5% 감소한 74만 7천 명에 그쳤다. 반면 내국인 관광객은 전년도보다 10.3% 증가한 1352만 859명이었다. 전체적으로 지난해 제주를 방문한 관광객은 전년 대비 6.9% 감소했다. 그런 가운데에도 중국인 관광객이 빠진 자리가 내국인 관광객들로 차고 있다는 것에 제주 관광업계는 주목해야 한다. 물론 중국인 단체 관광객이 줄면 중국인을 타깃으로 한 영세 자영업자들이 타격을 받을 수 있다. 그러나 이는 반대로 중국인만을 타깃으로 삼는 것에는 한계가 있다는 뜻이기도 하다. 또 제주도에 오는 중국인 대부분이 중국계 여행사의 저가 관광 패키지를 이용한다. 이 경우 관광객들은 중국인 소유 숙박 업체에서 묵고, 중국인들이 운영하는 음식점에서 식사를 해결한다. 이 때문에 중국인 관광객이 실질적으로 제주에 큰 경제 효과를 가져왔다고 보기 어려운 부분이 있다. 저가 관광 패키지를 이용한 중국인들은 대부분 재방문하지 않는다는 것도 잊지 말아야 한다. 결국 제주 관광 업계는 중국인 관광객이 빠졌다고 울상을 지을 게 아니라, 내국인들, 그리고 다양한 국적의 관광객들이 제주를 찾을 수 있도록 하는 길을 모색해야 한다. 우선 시외까지 가는 대중교통을 체계적으로 보완할 필요가 있어 보였다. 지난해 8월 제주 시내버스 체계가 개편되면서 버스 우선차로제가 생기고 버스 번호도 보기 쉽게 바뀌었다. 그러나 여전히 시외로 가는 버스는 배차 간격이 길고 관광지 근처까지 가지 않는 버스도 많아 불편을 호소하는 관광객들이 많다. 나 역시 이런 이유로 버스가 아닌 택시를 이용했다. 그런데 함께 수다를 떨던 한 택시 기사는 목적지에 도착해 카드를 내밀자 "현금 안 가지고 다니냐"면서 퉁명스럽게 태도가 변했다. 대중교통으로 제주를 여행하는 것의 불편함과 악명 높은 제주 택시기사의 불친절함을 몸소 느꼈다. '바가지요금'도 문제다. 흑돼지구이나 갈치조림 같은 제주 대표 음식을 즐기려면 2인 기준 6만 원 이상이 들었다. 1인분에 2~3만 원짜리 식사는 여행객들에게 부담스러운 가격이다. '제주에 갈 바엔 그 돈으로 동남아에 가겠다'는 우스갯소리도 그냥 나온 말이 아니다. 최근 한국행 단체 관광을 중단시켰던 베이징과 산둥성 여유국이 이를 재허용하면서 관광업계는 3~4개월 안에 매출을 회복할 것이라는 기대를 품고 있었다. 그러나 중국인에 의존하기에 앞서 내외국인 누구나 여행하기 좋은 친절하고 편리한 제주를 만드는 것이 우선이라는 느낌을 받았다. 나를 포함한 제주를 사랑하는 여행자들의 바람이 아닐까. YTN PLUS 문지영 기자 (moon@ytnplus.co.kr)[저작권자(c) YTN 무단전재 및 재배포 금지] YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 '이달의 관광인' 이병기-조보광씨 선정 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 '이달의 관광인' 이병기-조보광씨 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회 '이달의 관광인' 이병기-조보광씨 선정 기자명 박성우 기자					(pio@jejusori.net) 입력 2018.01.12 17:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주특별자치도관광협회(회장 김영진)가 선정하는 '이달의 베스트 관광인'에 윈드윌호텔&amp;리조트 조보광 팀장과 (주)제주미니미니랜드 이병기 팀장이 선정됐다.제주도관광협회는 지난 11일 제주웰컴센터 3층 대회의실에서 '칭찬합시다-이달의 베스트 관광인'을 선정하고 선정패와 친절키움 꽃 화분을 전달했다.11월의 관광인으로 선정된 조보광 팀장은 관광객들의 쾌적한 휴식을 제공하기 위해 철저한 시설관리로 다시 찾고 싶은 제주도 만들기, 지속가능한 세계적인 관광지 발전에 앞섰다는 평가를 받았다. 특히, 냉난방 시설과 전기수전 시설 관리 업무에 있어 책임감 있는 자세로 임하는 모습이 동종업계 종사자들의 모범을 보였다고 인정됐다.12월의 관광인으로 선정된 이병기 팀장은 관광객들에게 친절과 서비스 정신을 보이고 제주 관광 이미지 향상에 노력하고 있다고 평가됐다. 외국인 관광객들에게는 고향의 향수를 느낄 수 있는 미니어쳐 테마공간을 지속적으로 관리 제공해 관광객들의 만족도를 높였다는 점을 인정 받았다.제주도관광협회 관계자는 "앞으로도 제주관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정, 수범 사례를 공유하고 이를 계기로 제주관광 서비스 제공의 최일선에서 일익을 담당하는 종사자들의 친절 마인드를 높여 나가겠다"고 밝혔다. 박성우 기자 pio@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 외국관광객 환대 에티켓 책자 내놔 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회, 외국관광객 환대 에티켓 책자 내놔 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회, 외국관광객 환대 에티켓 책자 내놔 제주CBS 박정섭 기자 메일보내기 2018-01-03 11:56 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 외국 관광객을 대상으로 친절 에티켓을 담은 책자가 발간됐다. 제주도관광협회는 올해 제주방문의 해를 맞아 도민들의 관광 칠전 수용태세 확립을 위해 글로벌 에티켓 책자를 발간, 호텔과 음식점 등에 배포했다.글로벌 에티켓 책자는 제주방문 외국관광객에 대한 국가별 에티켓과 함께 교통, 숙박 등도 상황별 기초회화로 제작됐다.또 같은 행동인데도 다른 의미로 해석돼 유념해야할 바디랭귀지도 정리됐다.제주도관광협회는 제주의 오름과 바다, 밭담길 등 다양한 제주의 모습을 담은 캠페인송도 제작했다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" [칼럼]핵위협 공포에 휩싸인 한반도 금감원 '수상한 외환거래' 이달 중 검사 마무리 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도에서 즐기는 겨울, 서귀포 중문단지 관광과 흑돼지 맛집 탐방 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도에서 즐기는 겨울, 서귀포 중문단지 관광과 흑돼지 맛집 탐방 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도에서 즐기는 겨울, 서귀포 중문단지 관광과 흑돼지 맛집 탐방 기자명 이수호 기자 승인 2018.01.12 14:55 댓글 0 조회수 : 4327 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 연일 살을 에는 듯한 매서운 추위로 한껏 움츠리게 되는 요즘이다. 곧 다가오는 구정연휴를 비롯해 주말을 이용해 떠나는 국내 겨울여행으로, 새해를 힐링으로 시작해보는 것은 어떨까. 국내에 가볼만한 곳은 무궁무진하지만 한반도 제일 남쪽에 위치한 섬 제주도는 여러 번 가도 질리지 않고 매 번 새로움을 선사하는 우리나라 대표적인 관광지다. 그 중에서도 중문관광단지는 제주도 여행의 핵심이자 다채로운 여행 요소들이 공존하는 곳인데, 천제연폭포와 지삿개주상절리 등 천혜의 자연경관과 각종 테마의 박물관과 볼거리, 맛있는 제주음식까지 여행의 필수요소를 모두 갖췄다. 특히 중문의 색달해변 근처에는 신라호텔과 하얏트 호텔, 롯데호텔과 부영호텔 등 고급스럽고 유명한 호텔과 리조트가 다수 들어서있어 다양하게 비교하여 숙소를 정할 수 있고, 호텔 내에 있는 온천과 사우나를 이용하는 등 추운 겨울여행의 또 다른 묘미를 느낄 수 있다. 돌고래쇼와 바다사자, 원숭이를 볼 수 있는 ‘퍼시픽랜드’와 도심에서는 보기 힘든 1700여 가지의 나무와 식물을 보유한 ‘여미지식물원’, 트릭아트뮤지엄과 초콜릿박물관 등의 관람도 제주도를, 또 중문관광단지를 다채롭게 즐기는 팁이다. 제주도가 주는 자연의 아름다움과 각종 관람을 마쳤다면 제주도 여행의 화룡점정은 역시 제주특산 음식으로 먹는 식사 한 끼. 중문동에 위치한 복분자 흑돼지 전문점 ‘돈가득’은 제주도산 두툼한 흑돼지를 품질 좋은 참숯에 굽기 직전 복분자를 뿌려 잡내를 없애준다.주인장이 제주산 재료로 직접 만드는 정갈한 반찬과 흑돼지 근고기, 함께 먹는 된장찌개까지. 평범하지만 결코 평범하지 않은 맛과 서비스로 각광을 받고 있다. 이곳의 흑돼지 구이는 참숯 향과 함께 은은하게 느껴지는 복분자 향, 고기의 육즙이 조화를 이룬다. 멜젓에 찍어 먹어도 좋고 ‘돈가득’만의 특제양파절임과 함께 먹으면 깔끔한 그 맛이 일품이다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>신임 제주도관광협회장 누가 나서나 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 신임 제주도관광협회장 누가 나서나 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 신임 제주도관광협회장 누가 나서나 정용기 기자 승인 2018.01.17 19:22 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 다음달 1~2일 후보자 등록 거쳐 13일 선거 [제주일보=정용기 기자] 제34대 제주특별자치도관광협회장 선거관리위원회 구성이 마무리됨에 따라 신임 협회장 후보경쟁 구도가 어떻게 형성될지 주목된다.제주도관광협회는 차기 협회장 선거관리위원장에 김동완 자문위원장을 선임했다고 17일 밝혔다. 이번 선거는 다음 달 1~2일 후보 등록기간을 거쳐 13일 치러진다. 제주도관광협회장 임기는 3년이다. 이런 가운데 현 김영진 제주도관광협회장이 4선 도전을 피력해 출마가 확실시되고 있다. 김 회장은 2011년 제31대 제주도관광협회장 보궐선거에서 당선된 후 32대, 현재 33대까지 회장직을 맡고 있다.여기에 지난 선거에 출마했던 후보들도 다시 도전장을 내밀지도 관심사다. 2015년 치러진 지난 선거에서는 장명선 ㈔서귀포시관광협의회장, 김희준 나인리조트 대표 등이 출마했다.장명선 ㈔서귀포시관광협의회장은 “출마하는 방향으로 심사숙고 중이다. 새로운 제주관광을 위한 역할을 진지하게 고민하고 있다”고 밝혔다. 김희준 나인리조트 대표는 “80% 정도 출마하는 쪽으로 마음을 정했다”고 말했다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제34대 제주도관광협회장 선거 2월13일 확정 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제34대 제주도관광협회장 선거 2월13일 확정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제34대 제주도관광협회장 선거 2월13일 확정 기자명 변미루 기자 입력 2018.01.17 17:29 수정 2018.01.17 17:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제34대 제주특별자치도관광협회장 선거가 오는 2월 13일 치러진다.17일 제주도관광협회에 따르면 이날 제34대 제주도관광협회장 선거를 위한 선거관리위원회(이하 선관위)가 첫 회의를 열고 선거 일정을 확정했다.선관위는 오는 22일 선거 공고를 시작으로 다음달 1~2일 후보등록기간을 운영한다. 이후 2월 13일 대의원 총 134명(당연직 46·선출직 88)이 대의원총회를 열고 출석 대의원 과반수 득표로 당선자를 결정한다. 제주도관광협회장의 임기는 3년이다. 이날 선거관리위원장에는 김동완 자문위원장이 선임됐다.현재까지 선거에 출마의사를 밝힌 이는 김영진 현 제주도관광협회장이 유일하다. 김 회장은 2011년 이후 3선을 연임했으며 오는 2월 28일 임기가 만료된다. 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도체육회 임직원 4명, 문화체육관광부장관 표창 수상 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도체육회 임직원 4명, 문화체육관광부장관 표창 수상 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 스포츠 제주도체육회 임직원 4명, 문화체육관광부장관 표창 수상 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.01.09 14:13 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도체육회 강은숙.홍인숙 이사와 박현미씨와 안지은씨가 문화체육부장관 표창을 수상했다.제주도체육회는 지난 8일 체육회 상임부회장실에서 장관 표창 전수식을 가졌다고 전했다.강은숙 이사는 도민의 건강과 체력증진을 위해 생활체육 New 프로그램 보급 등 생활체육 진흥에 기여한 공로이다.홍인숙 이사는 매년 개최되는 제주도어르신생활대회 어르신체조 종목을 진행하면서 어르신들에게 맞춤형 에어로빅스체조를 제공하는 등 어르신 건강 증진을 위하여 기여한 점이 인정됐다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>2018 무술년 새해 첫 제주도 관광객 주인공은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 2018 무술년 새해 첫 제주도 관광객 주인공은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 2018 무술년 새해 첫 제주도 관광객 주인공은? 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.01.01 10:01 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 2018년 무술년 첫날인 1일 새해 첫 관광객이 제주를 찾았다.그 주인공은 국내선을 이용해 처음 입도한 정문환씨(경기도 의정부시) 가족과 국제선을 이용한 지랏팟 파사문씨(태국) 가족.이들은 각각 국내선과 국제선 첫 항공편을 이용해 제주를 방문했다.이들을 대상으로 제주특별자치도와 제주특별자치도관광협회(회장 김영진)가 준비한 환영행사가 진행됐다.제주도와 관광협회는 환영 현수막을 게첩하고 이들에게 기념품을 제공하며 환영메시지를 전달했다.이날 국제여객터미널·성산포항 제주관광안내센터에서도 방문객을 대상으로 기념품(복주머니)을 제공하며 새해 첫 방문 환영메세지와 감사의 마음을 전달했다.관광협회 관계자는 "2018 새해 첫 입도객 환영행사를 시작으로 '4·3 70주년 2018 제주방문의 해'를 맞아 도, 관광협회, 관광행정기관과 관광업계가 유기적인 협업 관계를 통해 다양한 콘텐츠 발굴과 역사·문화·관광의 다변화를 위한 전력을 기울일 것"이라고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광친절 수용태세 확립 교육 본격 추진 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광친절 수용태세 확립 교육 본격 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광친절 수용태세 확립 교육 본격 추진 기자명 고병수 기자 입력 2018.01.04 12:27 수정 2018.01.04 12:30 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 관광 유관기관․단체 등과 협력, 관광친절교육 확대 실시 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 2018년 1월부터 관광사업체 종사자 및 학생을 포함한 도민을 대상으로 건전관광 문화정착을 위한 범 도민 관광친절 수용태세 확립 교육을 대대적으로 추진할 계획이라고 4일 밝혔다.작년 12월 수립한 제주도 관광교육 종합계획에는 관광친절 수용태세 확립을 위해 서비스 부분에서 이뤄지는 관광친절 교육을 강화한다.또한 전 도민을 대상으로 관광친절 및 환대의식 교육을 지속적으로 추진하는 한편 초․중등학생 체험형 관광친절교육 등 관광교육 활성화 방안이 제시됐다.그 동안 관광객의 수가 지속 증가해 양적인 면에서 좋은 성과를 얻었으나 양적 성장에 상응하는 질적 성장이 필요함에 따라 제주지역에 맞는 관광친절 수용태세 확립 교육이 무엇보다도 필요하다는 것. 이에 올해 1월부터 관광친절 수용태세 확립 교육을 위해 도․제주관광공사 및 관광협회 등 관광 유관기관․단체 등과 긴밀한 협조와 공조체제를 유지해 나가면서 관광친절교육을 지속 실시하기로 했다. 道는 관광실천단체의 각종 행사(정기․임시 총회 및 신년하례회 등)때나 공영버스 대상 운수 종사자 및 문화관광해설사 등 의무교육시 또는 읍면동 단위 자생단체 행사(회의 등) 때를 활용해 관광친절 교육을 실시해 나갈 방침이다.  제주관광공사는 제주관광아카데미, 소수언어 관광통역 안내사 양성과정 교육 및 전세버스 종사원 등 관광종사자 대상 관광친절 교육에 보다 더 주력해 나가고 도관광협회는 도교육청과 협력해 관광꿈나무 관광인재 양성과정 등을 통한 체험위주의 관광친절교육에 역할 분담해 관광친절 교육을 내실 있게 추진하기로 했다.이승찬 관광국장은 "제주를 찾는 국내․외 관광객을 맞이하는 현장에서 필요한 에티켓과 관광영어 등의 도민 밀착형 적합한 교육 내용으로 강화한다"며 "제주를 찾는 관광객들에게 보다 나은 관광환경을 조성하고 도민들의 관광산업에 대한 긍정적인 인식제고를 통해 부가가치를 창출하고 도민들에게 실질적인 이익이 돌아가도록 해 나가겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 올레코스 관광정보 '우수정보' 장관표창 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 올레코스 관광정보 '우수정보' 장관표창 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 올레코스 관광정보 '우수정보' 장관표창 기자명 김하나 기자 입력 2018.01.09 09:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도 오름 및 올레코스 관광정보가 국민들에 유익한 '우수사전정보'로 선정, 행정안전부 장관 표창을 받는다.행정안전부는 7일 지난 1년간 중앙부처·지방자치단체·교육청·공기업 등이 국민에 공개한 정보가운데 유용한 사전정보로 평가된 공표 및 원문공개 10선을 선정·발표했다.관광분야에 선정되 제주도는 도내 오름 및 올레코스 현황에 대한 문서 공개, 정보공개와 사전정보공표의 접근성 및 편리한 검색, 게시판을 활용한 자료 누적 관리 등이 높이 평가 됐다.한편, 이번 우수사례를 공모에는 총 206개 기관·469건(사전정보 226건·원문공개 243건)이 응모, 식품안전(경남·충북·청주), 관광(한국관광공사·제주), 일자리(부산·소상공인공단) 등 10선이 선정됐다. 김하나 기자 hana4557@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광協, 관광 수용태세 확립…에티켓 책자보급 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광協, 관광 수용태세 확립…에티켓 책자보급 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광協, 관광 수용태세 확립…에티켓 책자보급 기자명 고병수 기자 입력 2018.01.04 07:28 수정 2018.01.04 08:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 I LOVE JEJU 캠페인 노래-영상도 제작 보급 (제주=국제뉴스) 고병수 기자 = 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 범 도민 관광친절 수용태세 확립을 위해 꼭 알아두어야 할 글로벌 에티켓 책자 및 I LOVE JEJU 캠페인 노래를 제작 보급한다고 밝혔다. 글로벌 에티켓 책자는 국제관광지를 지향하고 질적관광과 시장다변화를  추구하는 관광시장에서 제주를 방문하는 관광객들에 대한 글로벌 에티켓과 교통, 숙박 등 상황별 회화로 제작해 보다 쉽게 다가 갈 수 있도록 했다. I Love JEJU 캠페인 노래는 제주 방문을 환영하고 아름다운 추억과 행복한 여행을 보낼 수 있는 내용을 주제로 하고 있어 누구나 쉽게 따라할 수 있도록 했다.  이와 함께 영상은 제주의 오름, 바다, 밭담길, 해녀 등 다양한 제주의 아름다운 모습을 컨셉으로 촬영해 제작했다. 관계자는 "이번 홍보책자 및 노래(영상) 배부를 통해 범 도민 관광친절 수용태세를 확립하고 제주방문 관광객들에게 환대분위기를 조성해 한 단계 더욱 성장하는 국제 관광도시로의 품격을 갖추기 위해 지속 노력할 것"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, ‘더코브관광호텔’ 투자진흥지구 해제 절차 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, ‘더코브관광호텔’ 투자진흥지구 해제 절차 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, ‘더코브관광호텔’ 투자진흥지구 해제 절차 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2018.01.05 10:50 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 지난해 시설매각 투자진흥지구 지정 기준 위반 ▲ 더 코브 관광호텔 전경. ⓒ제주의소리 호주 국적의 한국인이 운영하던 더 코브 관광호텔에 대한 투자진흥지구 지정이 해제된다.제주도에 따르면 서귀포시 하예동 소재 더 코브 관광호텔을 운영하고 있는 케이피오스트레일리아㈜(대표자 김동훈)에 대한 투자진흥지구 지정해제 행정처분 내용을 공고했다.더 코브 관광호텔은 서귀포시 하예동 일대 9296㎡에 총사업비 88억원을 투입해 42실을 갖춘 고급호텔이다. 2013년 1월 투자진흥지구로 지정됐다.투자진흥지구 지정해제 사유는 더 코브 관광호텔이 지난해 말 다른 사업자에게 매각됐기 때문이다.제주도는 청문을 통해 사업자 측의 합리적인 소명이 부족하다고 판단되면 제주국제자유도시종합계획심의회에 안건으로 올려 지구지정 해제 여부를 최종 결정하게 된다. 투자진흥지구로 지정되면 법인세 3년간 100% 면제, 취득세 100% 면제, 재산세 10년간 100% 면제, 개발부담금 100% 면제 혜택 등을 받는다.투자진흥지구 지정이 해제될 경우 그동안 감면받은 세제를 추징당할 수 있다. 제주도 관계자는 “행정처분 전 사전통지를 했으나 수취인 불명 등으로 문서 송달이 불가능하고 통상의 방법으로 주소를 확인할 수 없어 공시송달을 공고하게 된 것”이라고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광 수용태세 확립 친절교육 확대 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광 수용태세 확립 친절교육 확대 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 관광 수용태세 확립 친절교육 확대 실시 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.01.04 17:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 관광사업체 종사자 및 도민(학생포함)을 대상으로 건전관광 문화정착을 위한 범 도민 관광친절 수용태세 확립 교육을 대대적으로 추진한다고 4일 밝혔다.그 동안 관광객의 수가 지속적으로 증가해 양적인 면에서 성과를 얻었으나, 그에 상응하는 질적 성장이 필요함에 따라 제주지역에 맞는 관광친절 수용태세 확립 교육이 무엇보다도 필요하다는 의견이 제시되고 있다.이에 제주도는 제주관광공사 및 관광협회 등 관광 유관기관․단체 등과 긴밀한 협조와 공조체제를 유지해 관광친절교육을 지속 실시키로 했다.이를 위해 관광협회나 외식업협회, 숙박업협회 등 관광실천단체의 정기․임시 총회 및 신년하례회 등 각종 행사때나, 공영버스 대상 운수 종사자 및 문화관광해설사 등 의무교육시, 또는 읍․면․동 단위 자생단체 행사(회의 등)를 활용해 친절교육을 실시한다.또 관광공사는 제주관광아카데미, 소수언어 관광통역 안내사 양성과정 교육 및 전세버스 종사원 등 관광종사자 대상 관광친절 교육에 보다 더 주력하고, 관광협회는 도 교육청과 협력하에 관광꿈나무 관광인재 양성과정 등을 통한 체험위주의 관광친절교육을 추진키로 역할을 분담했다.이승찬 제주도 관광국장은 "제주를 찾는 국내․외 관광객을 맞이하는 현장에서 필요한 에티켓과 관광영어 등의 도민 밀착형 적합한 교육 내용으로 강화해 제주를 찾는 관광객들에게 보다 나은 관광환경을 조성할 것"이라며 "도민들의 관광산업에 대한 긍정적인 인식제고는 물론 건전한 관광문화를 정착함으로써 관광산업을 통한 부가가치를 창출하고 도민들에게 실질적인 이익이 돌아갈 수 있도록 해 나가겠다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
   <si>
     <t>제주도 서귀포 중문 관광 후 흑돼지 맛집까지, 활기찬 새해의 시작 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 뉴스 제주도 서귀포 중문 관광 후 흑돼지 맛집까지, 활기찬 새해의 시작 김순덕 duck@betanews.net 기사 입력 : 2018-01-05 17:28:05 소한을 맞아 겨울도 어느덧 절정이다. 어느 때보다도 추운 겨울을 보내고 있어서일까, 따뜻한 곳에서 특별한 여행으로 새해의 첫 소중한 추억을 만들고자 하는 움직임이 적지 않다.2월 구정연휴 또는 주말을 이용하여 제주도로 여행을 떠나보는 것은 어떨까. 제주도가 지닌 특유의 이국적인 풍경과 맛있는 음식들, 사진으로 찍어 오래 간직하고 싶게 예쁘고 아기자기한 카페도 곳곳에 있으니 이보다 여유롭고 편안한 여가도 없을 것이다.  제주도의 곳곳의 여러 관광요소들 중에서도 ‘중문관광단지’는 세계적으로 인정받는 제주도의 대표적인 종합관광휴양단지다. 먼저 아이들과 함께하는 여행이라면 가족 모두가 즐겁게 관람할 수 있는 돌고래쇼와 원숭이, 바다사자 등을 관람할 수 있는 ‘퍼시픽랜드’ 방문을 권한다. 또 정적인 관람이 아닌 활동적으로 참여하면서 관람이 가능한 ‘트릭아트뮤지엄’, 나무 종류만 1700여가지를 보유한 ‘여미지식물원’ 등 볼거리가 풍부하여 테마 별로 골라 보는 재미가 있다.하지만 제주도만이 가지는 천혜의 자연경관이 빠질 수 없다. 3단으로 떨어져 내려오는 ‘천제연 폭포’의 모습은 장관 중에 장관이다. 높은 곳에서 쏟아져 내려오는 폭포수의 웅장함은 새해를 맞이하는 설레는 마음 위에 기대감과 자신감까지 안겨줄 것이다. 4가지 색을 띄는 모래로 유명한 ‘색달해변’을 거니는 것도 좋다. 제주도 겨울바다 산책의 매력에 빠져들게 될 것이다. 제주도에 왔으니 제주 특산음식 또한 빠질 수 없다. 식도락여행이란 말이 있을 정도로 여행은 어쩌면 맛있는 식사 한 끼가 여행의 시작이자 끝이라고 볼 수 있는데, 중문동 2025-1에 위치한 ‘돈가득’은 복분자 흑돼지 전문점으로 제주도산 두툼한 흑돼지를 품질 좋은 참숯에 굽는데, 굽기 직전 복분자를 뿌려주어 잡내를 없앤다.싱싱한 제주산 재료로 만든 정갈한 반찬과 흑돼지 근고기 한 상이 관광객뿐만 아니라 현지 주민들의 입맛까지 사로잡으며 꾸준히 좋은 반응을 얻고 있다. 베타뉴스 김순덕 (duck@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 문화 생활 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
   </si>
   <si>
-    <t>지난해 제주도 관광객 19년 만에 첫 감소세 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 지난해 제주도 관광객 19년 만에 첫 감소세 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 지난해 제주도 관광객 19년 만에 첫 감소세 기자명 변미루 기자 입력 2018.01.02 19:04 수정 2018.01.02 20:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국내·외 관광객 1475만명 전년대비 6.9%↓중국인 75.5% 급감…동남아 시장도 위축지난해 제주를 찾은 국내·외 관광객이 19년 만에 처음으로 감소했다.2일 제주도 등에 따르면 2017년 제주를 방문한 관광객(잠정치)은 1475만4384명으로 2016년 1585만1401명보다 109만7017(6.9%) 줄어든 것으로 나타났다.이는 19년 전인 1998년 이후 처음 감소한 수치다.이처럼 관광객이 감소한 것은 사드(THAAD·고고도방어미사일체계) 여파로 인한 중국인 관광객 급감이 큰 영향을 미쳤기 때문이다. 지난해 외국인 관광객은 123만3525명으로 전년(359만8689명)대비 65.7% 줄었다. 이 가운데 중국인 관광객 수는 74만7986명으로 전년(305만8279명)대비 75.5% 급감했다.동남아 시장도 전반적으로 위축됐다. 중국에 이어 제2의 시장이었던 말레이시아는 지난해 4만9786명이 방문해 전년(6만6207명)보다 24.8% 감소했다. 대만과 싱가포르, 인도네시아, 베트남, 태국 관광객 수도 전년대비 줄었다.반면 일본인 관광객은 5만7351명으로 전년(4만8169명)보다 19.1% 늘었다.이는 2013년 이후 5년 만에 첫 증가세로 돌아선 것이다.내국인 관광객은 1352만859명으로 전년(1225만2712명)보다 10.3% 증가했지만 외국인 관광객의 빈자리를 채우지 못했다.도 관계자는 "지난해 동남아 관광객이 줄어든 것은 북한 도발의 영향을 받은 것"이라며 "지난해 제주와 동남아를 잇는 항공기 취항과 복항 등이 대부분 연말에 이뤄져 수 개월 후에야 관광객 증가 효과가 가시적으로 드러날 것"이라고 분석했다. 변미루 기자 관련기사 제주국제공항 지난해 국제선 이용객 반토막 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>신임 제주도관광협회장 선거 막 오른다 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 신임 제주도관광협회장 선거 막 오른다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 신임 제주도관광협회장 선거 막 오른다 정용기 기자 승인 2018.01.09 19:48 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 오는 12일 이사회서 선관위 구성…눈치 싸움 치열해질 듯 [제주일보=정용기 기자] 신임 제주특별자치도관광협회장 선거 레이스가 선거관리위원회 구성을 시작으로 본격 막을 올린다. 제주도관광협회는 오는 12일 ‘2018년도 제1차 이사회’를 열고 제34대 제주도관광협회장 선관위를 구성할 계획이다.이사회에서 위촉된 선관위원장은 제주도관광협회 고문변호사와 논의해 5~7명의 선관위를 구성한다. 다음 달 초 후보자 등록을 거쳐 설연휴 전 정기 대의원총회를 통해 선거가 실시될 것으로 보인다.당선자는 재적 대의원 과반수 출석과 출석대의원 과반수 득표로 결정된다. 제주도관광협회장의 임기는 3년이다. 이번 선거는 김영진 제주도관광협회장의 임기가 다음 달 28일로 종료됨에 따라 진행되는 것이다.1000여 개의 회원사를 가지고 있는 제주도관광협회의 차기 회장 선거 일정이 이사회를 기점으로 윤곽을 드러내면 출마를 고심하고 있는 잠재 후보군들의 눈치 싸움이 치열해질 전망이다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 오름·올레코스 관광정보 '우수' - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 오름·올레코스 관광정보 '우수' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도 오름·올레코스 관광정보 '우수' 정용기 기자 승인 2018.01.09 18:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 행안부 정보 공개 우수사례 공모 발표 결과 [제주일보=정용기 기자] 제주특별자치도의 오름·올레코스 관광정보가 국민들에 유익한 정보로 선정됐다.행정안전부는 지난해 중앙부처, 지방자치단체, 교육청, 공기업 등이 국민을 대상으로 공개한 사전정보 가운데 유용한 정보로 평가된 10선을 발표했다.이번 평가에서 제주도의 오름·올레코스 관광정보는 사전정보공표 우수 사례로 선정됐다. 제주도는 홈페이지를 통해 매년 오름·올레코스 현황을 문서로 공개하고 있는 점과 정보공개 접근성 및 검색이 편리하다는 점을 높게 평가 받았다. 이와 관련해 제주도는 행정안전부장관 표창을 받을 예정이다.오름·올레 코스 등의 관련 정보는 제주도청 홈페이지(www.jeju.go.kr) 정보공개 메뉴를 통해 확인할 수 있다. 한편 정보 공개 우수사례 공모에서는 총 206개 기관, 469건(사전정보 226, 원문공개 243)이 응모됐으며, 서면심사와 국민 선호도 조사를 거쳐 10선이 선정됐다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>지난해 제주도 관광객 19년 만에 첫 감소세 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 지난해 제주도 관광객 19년 만에 첫 감소세 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 지난해 제주도 관광객 19년 만에 첫 감소세 기자명 변미루 기자 입력 2018.01.02 19:04 수정 2018.01.02 20:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국내·외 관광객 1475만명 전년대비 6.9%↓중국인 75.5% 급감…동남아 시장도 위축지난해 제주를 찾은 국내·외 관광객이 19년 만에 처음으로 감소했다.2일 제주도 등에 따르면 2017년 제주를 방문한 관광객(잠정치)은 1475만4384명으로 2016년 1585만1401명보다 109만7017(6.9%) 줄어든 것으로 나타났다.이는 19년 전인 1998년 이후 처음 감소한 수치다.이처럼 관광객이 감소한 것은 사드(THAAD·고고도방어미사일체계) 여파로 인한 중국인 관광객 급감이 큰 영향을 미쳤기 때문이다. 지난해 외국인 관광객은 123만3525명으로 전년(359만8689명)대비 65.7% 줄었다. 이 가운데 중국인 관광객 수는 74만7986명으로 전년(305만8279명)대비 75.5% 급감했다.동남아 시장도 전반적으로 위축됐다. 중국에 이어 제2의 시장이었던 말레이시아는 지난해 4만9786명이 방문해 전년(6만6207명)보다 24.8% 감소했다. 대만과 싱가포르, 인도네시아, 베트남, 태국 관광객 수도 전년대비 줄었다.반면 일본인 관광객은 5만7351명으로 전년(4만8169명)보다 19.1% 늘었다.이는 2013년 이후 5년 만에 첫 증가세로 돌아선 것이다.내국인 관광객은 1352만859명으로 전년(1225만2712명)보다 10.3% 증가했지만 외국인 관광객의 빈자리를 채우지 못했다.도 관계자는 "지난해 동남아 관광객이 줄어든 것은 북한 도발의 영향을 받은 것"이라며 "지난해 제주와 동남아를 잇는 항공기 취항과 복항 등이 대부분 연말에 이뤄져 수 개월 후에야 관광객 증가 효과가 가시적으로 드러날 것"이라고 분석했다. 변미루 기자 관련기사 제주국제공항 지난해 국제선 이용객 반토막 변미루 기자 byunmiroo@nate.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>신임 제주도관광협회장 선거 막 오른다 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 신임 제주도관광협회장 선거 막 오른다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 신임 제주도관광협회장 선거 막 오른다 정용기 기자 승인 2018.01.09 19:48 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 오는 12일 이사회서 선관위 구성…눈치 싸움 치열해질 듯 [제주일보=정용기 기자] 신임 제주특별자치도관광협회장 선거 레이스가 선거관리위원회 구성을 시작으로 본격 막을 올린다. 제주도관광협회는 오는 12일 ‘2018년도 제1차 이사회’를 열고 제34대 제주도관광협회장 선관위를 구성할 계획이다.이사회에서 위촉된 선관위원장은 제주도관광협회 고문변호사와 논의해 5~7명의 선관위를 구성한다. 다음 달 초 후보자 등록을 거쳐 설연휴 전 정기 대의원총회를 통해 선거가 실시될 것으로 보인다.당선자는 재적 대의원 과반수 출석과 출석대의원 과반수 득표로 결정된다. 제주도관광협회장의 임기는 3년이다. 이번 선거는 김영진 제주도관광협회장의 임기가 다음 달 28일로 종료됨에 따라 진행되는 것이다.1000여 개의 회원사를 가지고 있는 제주도관광협회의 차기 회장 선거 일정이 이사회를 기점으로 윤곽을 드러내면 출마를 고심하고 있는 잠재 후보군들의 눈치 싸움이 치열해질 전망이다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 오름·올레코스 관광정보 '우수' - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 오름·올레코스 관광정보 '우수' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도 오름·올레코스 관광정보 '우수' 정용기 기자 승인 2018.01.09 18:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 행안부 정보 공개 우수사례 공모 발표 결과 [제주일보=정용기 기자] 제주특별자치도의 오름·올레코스 관광정보가 국민들에 유익한 정보로 선정됐다.행정안전부는 지난해 중앙부처, 지방자치단체, 교육청, 공기업 등이 국민을 대상으로 공개한 사전정보 가운데 유용한 정보로 평가된 10선을 발표했다.이번 평가에서 제주도의 오름·올레코스 관광정보는 사전정보공표 우수 사례로 선정됐다. 제주도는 홈페이지를 통해 매년 오름·올레코스 현황을 문서로 공개하고 있는 점과 정보공개 접근성 및 검색이 편리하다는 점을 높게 평가 받았다. 이와 관련해 제주도는 행정안전부장관 표창을 받을 예정이다.오름·올레 코스 등의 관련 정보는 제주도청 홈페이지(www.jeju.go.kr) 정보공개 메뉴를 통해 확인할 수 있다. 한편 정보 공개 우수사례 공모에서는 총 206개 기관, 469건(사전정보 226, 원문공개 243)이 응모됐으며, 서면심사와 국민 선호도 조사를 거쳐 10선이 선정됐다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,9 +554,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -467,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -521,9 +617,6 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -533,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -544,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -553,6 +646,223 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
